--- a/资料/H5游戏完成情况.xlsx
+++ b/资料/H5游戏完成情况.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/H5Games/资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blues/Documents/works/kid-h5-games/资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2ECF2C58-EDB8-8E49-889E-A30FBD110846}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB2CBC-C208-D149-90B9-65D8067BE46F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="21560" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="21560" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原創" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="複刻" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -307,7 +306,7 @@
   </si>
   <si>
     <t>刘渊</t>
-    <rPh sb="0" eb="36">
+    <rPh sb="0" eb="2">
       <t>liu'y</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -394,6 +393,22 @@
   <si>
     <t>WTG1_U6</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/GraspTheDoll/index.html?assetsName=HC2_T2U2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voc6</t>
+  </si>
+  <si>
+    <t>voc7</t>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_voc_u6/index.html</t>
+  </si>
+  <si>
+    <t>http://118.25.0.212/h5/wk1_voc_u7/index.html</t>
   </si>
 </sst>
 </file>
@@ -488,17 +503,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D50"/>
+    <sheetView topLeftCell="C1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -845,551 +860,553 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="5" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="5" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>7</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="6"/>
+      <c r="F28" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="6"/>
+      <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="6"/>
+      <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>8</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="5" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="5" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="6" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="5" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="5" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="5" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="5" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="5" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="5" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="6" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="6" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="5" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="F42" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="5" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="5" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>11</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="F45" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="F45" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="F46" s="5" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>12</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="F47" s="6" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="F47" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="F48" s="6" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="F49" s="5" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="F49" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="F50" s="5" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="F50" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1455,6 +1472,7 @@
     <hyperlink ref="E22" r:id="rId7" xr:uid="{7E593C75-419D-AD4A-877E-4A512F1891BA}"/>
     <hyperlink ref="E26" r:id="rId8" xr:uid="{5BAB67EA-00CD-6D48-A526-E39ED3190F28}"/>
     <hyperlink ref="E27" r:id="rId9" xr:uid="{9E07AF96-EA33-9E40-9666-D74EF84E0C98}"/>
+    <hyperlink ref="E3" r:id="rId10" xr:uid="{6E7A1B53-70E6-D349-8568-D1868473AA81}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1463,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1522,6 +1540,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1530,6 +1564,8 @@
     <hyperlink ref="B5" r:id="rId3" xr:uid="{AE399EA9-D23A-ED46-9B6D-C4B6A3E4DB2C}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{62BA989D-A158-5942-8E4A-35A4074B16B5}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{6E3708C8-3506-8B4F-AD66-D79C737807E1}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://118.25.0.212/h5/wk1_voc_u4/index.html" xr:uid="{6B4694C3-0268-E046-8E81-FFEB716945C8}"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://118.25.0.212/h5/wk1_voc_u5/index.html" xr:uid="{E88D25F8-9C50-A646-846D-9425F891D13A}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
